--- a/MANUSCRIPT/manuscript_files/figure-latex/figure1make.xlsx
+++ b/MANUSCRIPT/manuscript_files/figure-latex/figure1make.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fsu-my.sharepoint.com/personal/meh03c_fsu_edu/Documents/MANUSCRIPTS/WORKING/demographic-anomalies/MANUSCRIPT/manuscript_files/figure-latex/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhauer\OneDrive - Florida State University\MANUSCRIPTS\WORKING\demographic-anomalies\MANUSCRIPT\manuscript_files\figure-latex\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27048" windowHeight="13512"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27048" windowHeight="13512" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="62">
   <si>
     <t>12/27/2014,</t>
   </si>
@@ -217,7 +218,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -269,7 +270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -777,6 +778,1717 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-93F1-441B-A3E3-5C656630D293}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="477425040"/>
+        <c:axId val="477435856"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="477425040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="yyyy\-mm\-dd;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="477435856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="6"/>
+        <c:majorTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="477435856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.25"/>
+          <c:min val="0.85000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1"/>
+                  <a:t>EUR / CHF</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="477425040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9284764907128838E-2"/>
+          <c:y val="9.263536053374391E-2"/>
+          <c:w val="0.77600488467277973"/>
+          <c:h val="0.83657992519988122"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>counterfactual estimate y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$28:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>42000.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42001.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42002.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42003.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42004.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42005.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42006.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42008.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42009.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42010.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42011.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42012.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42013.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42015.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42016.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42017.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42018.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42019.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42020.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42022.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42023.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42024.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42025.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42026.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42027.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42028.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42029.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42030.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42031.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42032.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42033.998611111114</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$E$28:$E$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F69-4882-B2AC-6336741A7700}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>observed data y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$28:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>42000.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42001.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42002.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42003.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42004.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42005.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42006.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42008.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42009.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42010.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42011.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42012.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42013.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42015.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42016.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42017.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42018.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42019.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42020.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42022.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42023.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42024.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42025.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42026.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42027.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42028.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42029.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42030.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42031.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42032.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42033.998611111114</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$D$28:$D$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1.203880343</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2025239080000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.202714098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.201988512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2025351019999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2017277260000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2017941270000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.20132752</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2010003199999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.20071649</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.200762136</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.200787933</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.20079581</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2009898670000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2006266999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2005835899999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2006052190000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99417984000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99225889599999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99235382400000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0198806010000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0094024399999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.99911794499999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.988725725</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.93937711680000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.98745660120000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.98069954400000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.013809279</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0220307200000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0234588</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0455615</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1F69-4882-B2AC-6336741A7700}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="477425040"/>
+        <c:axId val="477435856"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="477425040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="yyyy\-mm\-dd;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="477435856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="6"/>
+        <c:majorTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="477435856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.25"/>
+          <c:min val="0.85000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1"/>
+                  <a:t>EUR / CHF</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="477425040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9284764907128838E-2"/>
+          <c:y val="9.263536053374391E-2"/>
+          <c:w val="0.77600488467277973"/>
+          <c:h val="0.83657992519988122"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$28:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>42000.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42001.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42002.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42003.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42004.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42005.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42006.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42008.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42009.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42010.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42011.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42012.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42013.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42015.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42016.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42017.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42018.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42019.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42020.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42022.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42023.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42024.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42025.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42026.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42027.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42028.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42029.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42030.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42031.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42032.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42033.998611111114</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$D$28:$D$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1.203880343</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2025239080000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.202714098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.201988512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2025351019999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2017277260000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2017941270000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.20132752</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2010003199999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.20071649</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.200762136</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.200787933</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.20079581</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2009898670000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2006266999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2005835899999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2006052190000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99417984000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99225889599999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99235382400000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0198806010000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0094024399999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.99911794499999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.988725725</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.93937711680000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.98745660120000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.98069954400000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.013809279</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0220307200000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0234588</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0455615</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3B26-4B74-8C2B-9874F4C7A0DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="477425040"/>
+        <c:axId val="477435856"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="477425040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="42033"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="yyyy\-mm\-dd;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="477435856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="6"/>
+        <c:majorTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="477435856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.25"/>
+          <c:min val="0.85000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1"/>
+                  <a:t>EUR / CHF</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="477425040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9284764907128838E-2"/>
+          <c:y val="9.263536053374391E-2"/>
+          <c:w val="0.77600488467277973"/>
+          <c:h val="0.83657992519988122"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>observed data y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$28:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>42000.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42001.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42002.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42003.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42004.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42005.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42006.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42008.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42009.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42010.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42011.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42012.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42013.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42015.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42016.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42017.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42018.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42019.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42020.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42022.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42023.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42024.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42025.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42026.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42027.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42028.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42029.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42030.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42031.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42032.998611111114</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42033.998611111114</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$D$28:$D$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1.203880343</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2025239080000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.202714098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.201988512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2025351019999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2017277260000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2017941270000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.20132752</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2010003199999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.20071649</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.200762136</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.200787933</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.20079581</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2009898670000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2006266999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2005835899999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2006052190000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99417984000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99225889599999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99235382400000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0198806010000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0094024399999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.99911794499999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.988725725</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.93937711680000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.98745660120000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.98069954400000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.013809279</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0220307200000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0234588</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0455615</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BEBB-4491-A68E-DBEA62DD5DEE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1055,7 +2767,1675 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1617,8 +4997,8 @@
       <cdr:x>0.96435</cdr:x>
       <cdr:y>0.6582</cdr:y>
     </cdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="2" name="TextBox 1"/>
@@ -1676,7 +5056,7 @@
           </cdr:txBody>
         </cdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="2" name="TextBox 1"/>
@@ -1741,8 +5121,8 @@
       <cdr:x>0.97166</cdr:x>
       <cdr:y>0.33359</cdr:y>
     </cdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="3" name="TextBox 1"/>
@@ -1904,7 +5284,7 @@
           </cdr:txBody>
         </cdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="3" name="TextBox 1"/>
@@ -2043,6 +5423,937 @@
                 <a:t>𝑦 ̂</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.5128</cdr:x>
+      <cdr:y>0.59969</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.54479</cdr:x>
+      <cdr:y>0.65666</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="Oval 3"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4274820" y="2967990"/>
+          <a:ext cx="266700" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="57150">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.30073</cdr:x>
+      <cdr:y>0.71517</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.40859</cdr:x>
+      <cdr:y>0.82602</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="Line Callout 1 (No Border) 4"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2506980" y="3539490"/>
+          <a:ext cx="899160" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="callout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 43750"/>
+            <a:gd name="adj2" fmla="val 98738"/>
+            <a:gd name="adj3" fmla="val -65279"/>
+            <a:gd name="adj4" fmla="val 201102"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Anomaly Detectected</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.85466</cdr:x>
+      <cdr:y>0.47344</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96435</cdr:x>
+      <cdr:y>0.6582</cdr:y>
+    </cdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="2" name="TextBox 1"/>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="7124700" y="2343150"/>
+              <a:ext cx="914400" cy="914400"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>observed data</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑦</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100" i="1">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="2" name="TextBox 1"/>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="7124700" y="2343150"/>
+              <a:ext cx="914400" cy="914400"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>observed data</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>𝑦</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" i="1">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.85101</cdr:x>
+      <cdr:y>0.14883</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97166</cdr:x>
+      <cdr:y>0.33359</cdr:y>
+    </cdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="3" name="TextBox 1"/>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="7094220" y="736600"/>
+              <a:ext cx="1005840" cy="914400"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>counterfactual </a:t>
+              </a:r>
+            </a:p>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>estimate with</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>anomaly</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t> removed</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:acc>
+                    <m:accPr>
+                      <m:chr m:val="̂"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:accPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑦</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:acc>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="3" name="TextBox 1"/>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="7094220" y="736600"/>
+              <a:ext cx="1005840" cy="914400"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>counterfactual </a:t>
+              </a:r>
+            </a:p>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>estimate with</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>anomaly</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t> removed</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑦 ̂</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.5128</cdr:x>
+      <cdr:y>0.59969</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.54479</cdr:x>
+      <cdr:y>0.65666</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="Oval 3"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4274820" y="2967990"/>
+          <a:ext cx="266700" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="57150">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.30073</cdr:x>
+      <cdr:y>0.71517</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.40859</cdr:x>
+      <cdr:y>0.82602</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="Line Callout 1 (No Border) 4"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2506980" y="3539490"/>
+          <a:ext cx="899160" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="callout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 43750"/>
+            <a:gd name="adj2" fmla="val 98738"/>
+            <a:gd name="adj3" fmla="val -65279"/>
+            <a:gd name="adj4" fmla="val 201102"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Anomaly Detectected</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.85466</cdr:x>
+      <cdr:y>0.47344</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96435</cdr:x>
+      <cdr:y>0.6582</cdr:y>
+    </cdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="2" name="TextBox 1"/>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="7124700" y="2343150"/>
+              <a:ext cx="914400" cy="914400"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>observed data</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑦</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100" i="1">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="2" name="TextBox 1"/>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="7124700" y="2343150"/>
+              <a:ext cx="914400" cy="914400"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>observed data</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>𝑦</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" i="1">
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:endParaRPr>
@@ -2446,8 +6757,960 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:D58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="3">
+        <v>41974.998611111114</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.2026632799999999</v>
+      </c>
+      <c r="E3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="3">
+        <v>41975.998611111114</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.20386584</v>
+      </c>
+      <c r="E4">
+        <v>1.2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="3">
+        <v>41976.998611111114</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.20329865</v>
+      </c>
+      <c r="E5">
+        <v>1.2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="3">
+        <v>41977.998611111114</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.2019425100000001</v>
+      </c>
+      <c r="E6">
+        <v>1.2</v>
+      </c>
+      <c r="M6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="3">
+        <v>41978.998611111114</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.2019889699999999</v>
+      </c>
+      <c r="E7">
+        <v>1.2</v>
+      </c>
+      <c r="M7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="3">
+        <v>41979.998611111114</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.2022900750000001</v>
+      </c>
+      <c r="E8">
+        <v>1.2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="3">
+        <v>41980.998611111114</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.20253761</v>
+      </c>
+      <c r="E9">
+        <v>1.2</v>
+      </c>
+      <c r="M9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="3">
+        <v>41981.998611111114</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.2019695399999999</v>
+      </c>
+      <c r="E10">
+        <v>1.2</v>
+      </c>
+      <c r="M10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="3">
+        <v>41982.998611111114</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.2020940600000001</v>
+      </c>
+      <c r="E11">
+        <v>1.2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="3">
+        <v>41983.998611111114</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.20319585</v>
+      </c>
+      <c r="E12">
+        <v>1.2</v>
+      </c>
+      <c r="M12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="3">
+        <v>41984.998611111114</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.2010084670000001</v>
+      </c>
+      <c r="E13">
+        <v>1.2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="3">
+        <v>41985.998611111114</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.2009483809999999</v>
+      </c>
+      <c r="E14">
+        <v>1.2</v>
+      </c>
+      <c r="M14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="3">
+        <v>41986.998611111114</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.2008881680000001</v>
+      </c>
+      <c r="E15">
+        <v>1.2</v>
+      </c>
+      <c r="M15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="3">
+        <v>41987.998611111114</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.2009413360000001</v>
+      </c>
+      <c r="E16">
+        <v>1.2</v>
+      </c>
+      <c r="M16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="3">
+        <v>41988.998611111114</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.200806373</v>
+      </c>
+      <c r="E17">
+        <v>1.2</v>
+      </c>
+      <c r="M17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="3">
+        <v>41989.998611111114</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.200737167</v>
+      </c>
+      <c r="E18">
+        <v>1.2</v>
+      </c>
+      <c r="M18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="3">
+        <v>41990.998611111114</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.2009153850000001</v>
+      </c>
+      <c r="E19">
+        <v>1.2</v>
+      </c>
+      <c r="M19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="3">
+        <v>41991.998611111114</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.2039687569999999</v>
+      </c>
+      <c r="E20">
+        <v>1.2</v>
+      </c>
+      <c r="M20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="3">
+        <v>41992.998611111114</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.2032056799999999</v>
+      </c>
+      <c r="E21">
+        <v>1.2</v>
+      </c>
+      <c r="M21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="3">
+        <v>41994.998611111114</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.2028931839999999</v>
+      </c>
+      <c r="E22">
+        <v>1.2</v>
+      </c>
+      <c r="M22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="3">
+        <v>41995.998611111114</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1.2030590000000001</v>
+      </c>
+      <c r="E23">
+        <v>1.2</v>
+      </c>
+      <c r="M23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="3">
+        <v>41996.998611111114</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1.20232721</v>
+      </c>
+      <c r="E24">
+        <v>1.2</v>
+      </c>
+      <c r="M24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="3">
+        <v>41997.998611111114</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1.2025193670000001</v>
+      </c>
+      <c r="E25">
+        <v>1.2</v>
+      </c>
+      <c r="M25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="3">
+        <v>41998.998611111114</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.20216894</v>
+      </c>
+      <c r="E26">
+        <v>1.2</v>
+      </c>
+      <c r="M26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="3">
+        <v>41999.998611111114</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1.203681934</v>
+      </c>
+      <c r="E27">
+        <v>1.2</v>
+      </c>
+      <c r="M27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="3">
+        <v>42000.998611111114</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1.203880343</v>
+      </c>
+      <c r="E28">
+        <v>1.2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" t="str">
+        <f>CONCATENATE("'",F28,"'",D28,", ",C28,",")</f>
+        <v>'12/27/2014,'1.203880343, 42000.9986111111,</v>
+      </c>
+      <c r="M28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="3">
+        <v>42001.998611111114</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1.2025239080000001</v>
+      </c>
+      <c r="E29">
+        <v>1.2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" ref="G29:G58" si="0">CONCATENATE("'",F29,"'",D29,", ",E29,",")</f>
+        <v>'12/28/2014,'1.202523908, 1.2,</v>
+      </c>
+      <c r="M29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="3">
+        <v>42002.998611111114</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1.202714098</v>
+      </c>
+      <c r="E30">
+        <v>1.2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>'12/29/2014,'1.202714098, 1.2,</v>
+      </c>
+      <c r="M30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="3">
+        <v>42003.998611111114</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1.201988512</v>
+      </c>
+      <c r="E31">
+        <v>1.2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>'12/30/2014,'1.201988512, 1.2,</v>
+      </c>
+      <c r="M31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="3">
+        <v>42004.998611111114</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1.2025351019999999</v>
+      </c>
+      <c r="E32">
+        <v>1.2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>'12/31/2014,'1.202535102, 1.2,</v>
+      </c>
+      <c r="M32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="3">
+        <v>42005.998611111114</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1.2017277260000001</v>
+      </c>
+      <c r="E33">
+        <v>1.2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>'1/1/2015,'1.201727726, 1.2,</v>
+      </c>
+      <c r="M33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="3">
+        <v>42006.998611111114</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1.2017941270000001</v>
+      </c>
+      <c r="E34">
+        <v>1.2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>'1/2/2015,'1.201794127, 1.2,</v>
+      </c>
+      <c r="M34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="3">
+        <v>42008.998611111114</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1.20132752</v>
+      </c>
+      <c r="E35">
+        <v>1.2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>'1/4/2015,'1.20132752, 1.2,</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="3">
+        <v>42009.998611111114</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1.2010003199999999</v>
+      </c>
+      <c r="E36">
+        <v>1.2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>'1/5/2015,'1.20100032, 1.2,</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="3">
+        <v>42010.998611111114</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1.20071649</v>
+      </c>
+      <c r="E37">
+        <v>1.2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>'1/6/2015,'1.20071649, 1.2,</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="3">
+        <v>42011.998611111114</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1.200762136</v>
+      </c>
+      <c r="E38">
+        <v>1.2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>'1/7/2015,'1.200762136, 1.2,</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="3">
+        <v>42012.998611111114</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1.200787933</v>
+      </c>
+      <c r="E39">
+        <v>1.2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>'1/8/2015,'1.200787933, 1.2,</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="3">
+        <v>42013.998611111114</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1.20079581</v>
+      </c>
+      <c r="E40">
+        <v>1.2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>'1/9/2015,'1.20079581, 1.2,</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="3">
+        <v>42015.998611111114</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1.2009898670000001</v>
+      </c>
+      <c r="E41">
+        <v>1.2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>'1/11/2015,'1.200989867, 1.2,</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="3">
+        <v>42016.998611111114</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1.2006266999999999</v>
+      </c>
+      <c r="E42">
+        <v>1.2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>'1/12/2015,'1.2006267, 1.2,</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="3">
+        <v>42017.998611111114</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1.2005835899999999</v>
+      </c>
+      <c r="E43">
+        <v>1.2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>'1/13/2015,'1.20058359, 1.2,</v>
+      </c>
+    </row>
+    <row r="44" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="3">
+        <v>42018.998611111114</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1.2006052190000001</v>
+      </c>
+      <c r="E44">
+        <v>1.2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>'1/14/2015,'1.200605219, 1.2,</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="3">
+        <v>42019.998611111114</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.99417984000000004</v>
+      </c>
+      <c r="E45">
+        <v>1.2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>'1/15/2015,'0.99417984, 1.2,</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="3">
+        <v>42020.998611111114</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.99225889599999995</v>
+      </c>
+      <c r="E46">
+        <v>1.2</v>
+      </c>
+      <c r="F46" t="s">
+        <v>36</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>'1/16/2015,'0.992258896, 1.2,</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C47" s="3">
+        <v>42022.998611111114</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.99235382400000005</v>
+      </c>
+      <c r="E47">
+        <v>1.2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>'1/18/2015,'0.992353824, 1.2,</v>
+      </c>
+    </row>
+    <row r="48" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="3">
+        <v>42023.998611111114</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1.0198806010000001</v>
+      </c>
+      <c r="E48">
+        <v>1.2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>40</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>'1/19/2015,'1.019880601, 1.2,</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C49" s="3">
+        <v>42024.998611111114</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1.0094024399999999</v>
+      </c>
+      <c r="E49">
+        <v>1.2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>'1/20/2015,'1.00940244, 1.2,</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="3">
+        <v>42025.998611111114</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.99911794499999995</v>
+      </c>
+      <c r="E50">
+        <v>1.2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>44</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="0"/>
+        <v>'1/21/2015,'0.999117945, 1.2,</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C51" s="3">
+        <v>42026.998611111114</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.988725725</v>
+      </c>
+      <c r="E51">
+        <v>1.2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>46</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="0"/>
+        <v>'1/22/2015,'0.988725725, 1.2,</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C52" s="3">
+        <v>42027.998611111114</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.93937711680000002</v>
+      </c>
+      <c r="E52">
+        <v>1.2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>48</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="0"/>
+        <v>'1/23/2015,'0.9393771168, 1.2,</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="3">
+        <v>42028.998611111114</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.98745660120000001</v>
+      </c>
+      <c r="E53">
+        <v>1.2</v>
+      </c>
+      <c r="F53" t="s">
+        <v>50</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="0"/>
+        <v>'1/24/2015,'0.9874566012, 1.2,</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C54" s="3">
+        <v>42029.998611111114</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.98069954400000003</v>
+      </c>
+      <c r="E54">
+        <v>1.2</v>
+      </c>
+      <c r="F54" t="s">
+        <v>52</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="0"/>
+        <v>'1/25/2015,'0.980699544, 1.2,</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C55" s="3">
+        <v>42030.998611111114</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1.013809279</v>
+      </c>
+      <c r="E55">
+        <v>1.2</v>
+      </c>
+      <c r="F55" t="s">
+        <v>54</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="0"/>
+        <v>'1/26/2015,'1.013809279, 1.2,</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C56" s="3">
+        <v>42031.998611111114</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1.0220307200000001</v>
+      </c>
+      <c r="E56">
+        <v>1.2</v>
+      </c>
+      <c r="F56" t="s">
+        <v>56</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="0"/>
+        <v>'1/27/2015,'1.02203072, 1.2,</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C57" s="3">
+        <v>42032.998611111114</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1.0234588</v>
+      </c>
+      <c r="E57">
+        <v>1.2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>58</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="0"/>
+        <v>'1/28/2015,'1.0234588, 1.2,</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C58" s="3">
+        <v>42033.998611111114</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1.0455615</v>
+      </c>
+      <c r="E58">
+        <v>1.2</v>
+      </c>
+      <c r="F58" t="s">
+        <v>60</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="0"/>
+        <v>'1/29/2015,'1.0455615, 1.2,</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C59" s="1">
+        <v>42034</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:M59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3579,18 +8842,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3612,25 +8875,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15A24ABA-B55E-4600-8B96-0175DE72E518}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="54a4078d-61f4-41b2-9134-514de36988b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D36BB17-2BF8-4876-B99F-FFEDE4ED6BB1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15A24ABA-B55E-4600-8B96-0175DE72E518}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="54a4078d-61f4-41b2-9134-514de36988b3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>